--- a/Income/CHD_inc.xlsx
+++ b/Income/CHD_inc.xlsx
@@ -2186,16 +2186,16 @@
         <v>0.4321</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>0.4391</v>
+        <v>0.4443</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>0.4463</v>
+        <v>0.4517</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>0.4458</v>
+        <v>0.4514</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>0.4496</v>
+        <v>0.4553</v>
       </c>
       <c r="H16" s="0" t="n">
         <v>0.4511</v>
@@ -2446,10 +2446,10 @@
         <v>0.1989</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>0.1894</v>
+        <v>0.1893</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>0.1776</v>
+        <v>0.1775</v>
       </c>
       <c r="H18" s="0" t="n">
         <v>0.1801</v>
@@ -2567,13 +2567,13 @@
         <v>0.1606</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>0.1644</v>
+        <v>0.1645</v>
       </c>
       <c r="E19" s="0" t="n">
         <v>0.1571</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>0.1496</v>
+        <v>0.1497</v>
       </c>
       <c r="G19" s="0" t="n">
         <v>0.1413</v>
@@ -3710,16 +3710,16 @@
         <v>0.2298</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>0.2403</v>
+        <v>0.2419</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>0.2473</v>
+        <v>0.249</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>0.238</v>
+        <v>0.2397</v>
       </c>
       <c r="G28" s="0" t="n">
-        <v>0.2315</v>
+        <v>0.2333</v>
       </c>
       <c r="H28" s="0" t="n">
         <v>0.2341</v>
